--- a/public/download/userguide.xlsx
+++ b/public/download/userguide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20730" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -70,10 +70,10 @@
     <t>Done pcba prod raw tags</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>17:00</t>
+    <t xml:space="preserve">08:00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17:00 </t>
   </si>
   <si>
     <t>2 = Facilities</t>
@@ -91,7 +91,7 @@
     <t>3 = HR Migz</t>
   </si>
   <si>
-    <t>hr/min(24hr)</t>
+    <t>hr/min (24HR)</t>
   </si>
   <si>
     <t>4 = SM</t>
@@ -120,7 +120,7 @@
 </t>
   </si>
   <si>
-    <t>This is a guide only for the right usage of bulk request. Please follow all instruction above and do not change the format of the template for faster transaction of requesting overtime. Any information inputted will be seen by your Manager so be careful!</t>
+    <t>This is a guide only for the right usage of bulk request. Please follow all instruction above and do not change the format of the template for faster transaction of requesting overtime. Any information inputted will be seen by your Manager so be careful</t>
   </si>
 </sst>
 </file>
@@ -130,9 +130,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -170,7 +170,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +185,51 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -192,14 +237,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,106 +291,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,7 +322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.5"/>
+        <fgColor theme="4" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,151 +358,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,25 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,17 +605,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,11 +643,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,17 +674,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,130 +722,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -878,7 +878,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1277,8 +1277,7 @@
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="7.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1296,7 +1295,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" ht="23" customHeight="1" spans="1:10">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1453,7 +1452,7 @@
       <c r="D16" s="23"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="2:5">
+    <row r="17" ht="35" customHeight="1" spans="2:5">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="21"/>
